--- a/data/trans_bre/P19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.161834152739369</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3943454385244904</v>
+        <v>0.3943454385244918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.261430602370236</v>
@@ -649,7 +649,7 @@
         <v>0.3948581997727388</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05505165189980897</v>
+        <v>0.05505165189980916</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.399425158772759</v>
+        <v>-1.878551767673871</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.11675770576267</v>
+        <v>-4.479679644527255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.513136421402526</v>
+        <v>-1.323892921757197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.470316958322409</v>
+        <v>-5.85221544100057</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.329679349192934</v>
+        <v>-0.2620867884881856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3690251348717055</v>
+        <v>-0.4046469292584812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2493189223064322</v>
+        <v>-0.1986095458962351</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5513909936743587</v>
+        <v>-0.5609493890759922</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.113622334439278</v>
+        <v>4.827774750498146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.047506981477473</v>
+        <v>3.726063137466081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.827467748645461</v>
+        <v>5.747970440161736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.908942467587944</v>
+        <v>5.960255263760223</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.216367806623171</v>
+        <v>1.164537297888188</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6367148243232603</v>
+        <v>0.550710184939083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.494169968264266</v>
+        <v>1.5148974982473</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.334480649053797</v>
+        <v>1.602658447842082</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.837597689378488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.392823610667647</v>
+        <v>2.392823610667648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007794661191436622</v>
@@ -749,7 +749,7 @@
         <v>0.5021774604308447</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4392176047909322</v>
+        <v>0.4392176047909324</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.391397657696641</v>
+        <v>-2.499901461630887</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.855843292446173</v>
+        <v>-1.688237651451178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7091310674463245</v>
+        <v>-0.8760985382192407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.159334757383696</v>
+        <v>-0.9642264063626886</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4697878430538312</v>
+        <v>-0.4966654059440634</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3421187722497548</v>
+        <v>-0.3242560847193919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1820900947075328</v>
+        <v>-0.1839531420392141</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2223425095166552</v>
+        <v>-0.1510304268751891</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.398241664594582</v>
+        <v>2.765498143509037</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.680524793294699</v>
+        <v>3.993252185629065</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.667216607446329</v>
+        <v>4.518211992941579</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.981550101723427</v>
+        <v>6.244977608421773</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8681070888587152</v>
+        <v>1.078963413298655</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.096043781680083</v>
+        <v>1.12264663682345</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.790128133622829</v>
+        <v>1.822771895619415</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.687202250597098</v>
+        <v>1.901359211001216</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.166876547627085</v>
+        <v>-1.048822801547507</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.204329741411143</v>
+        <v>-1.44175106084655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.217254891853485</v>
+        <v>-3.070130053916428</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.467798666032757</v>
+        <v>-1.444358361012191</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4560141196344527</v>
+        <v>-0.435694367917309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3574381327306871</v>
+        <v>-0.4079394647600537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6497977032552371</v>
+        <v>-0.6694813312590081</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3429531597132672</v>
+        <v>-0.3447702556385797</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.407035159967358</v>
+        <v>2.545958890018631</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.481316882508531</v>
+        <v>2.453789933650516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9937793723167856</v>
+        <v>1.018350795488034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.587563265960129</v>
+        <v>2.592047942330129</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.811487911589413</v>
+        <v>2.092301201422393</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.385543044321143</v>
+        <v>1.449534599620868</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4999202404680184</v>
+        <v>0.4932069805540947</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.184572845872453</v>
+        <v>1.235519822512142</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.208306495643518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02979151103484068</v>
+        <v>0.02979151103483998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3735581672935478</v>
@@ -949,7 +949,7 @@
         <v>0.6873027962886656</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.008712248812683071</v>
+        <v>0.008712248812682866</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.127299310751158</v>
+        <v>-3.771659514548948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.80640159554817</v>
+        <v>-1.930932801068465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5372010951383317</v>
+        <v>-0.8295816011195001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.60898051711033</v>
+        <v>-1.839346827853239</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7766238296087269</v>
+        <v>-0.7540274256291549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6468422485413352</v>
+        <v>-0.6457207464371539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2839875010941458</v>
+        <v>-0.3365806230140077</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3698811548121914</v>
+        <v>-0.4203721733886616</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8689370269362239</v>
+        <v>1.081026250537857</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.090164691681137</v>
+        <v>2.020315532697535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.133312340939056</v>
+        <v>3.107253053841406</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.728433329322192</v>
+        <v>1.747740202251627</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.419506933218967</v>
+        <v>0.5652399616587392</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.007497062335322</v>
+        <v>2.21219059376639</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.158636213516592</v>
+        <v>3.478032582937728</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8236420041252845</v>
+        <v>0.6798746418019724</v>
       </c>
     </row>
     <row r="16">
@@ -1060,26 +1060,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.504399268088947</v>
+        <v>-1.146547425329385</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.86955860181009</v>
+        <v>-2.113976488994993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.754597799479626</v>
+        <v>-1.677117170265149</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3585878528301583</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>-0.6963005427737846</v>
-      </c>
-      <c r="H17" s="6" t="inlineStr"/>
+        <v>0.3413127657068322</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7566642371113338</v>
+        <v>-0.7302613480081301</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.103613764060776</v>
+        <v>0.0478437246947527</v>
       </c>
     </row>
     <row r="18">
@@ -1090,26 +1090,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.703208952699772</v>
+        <v>2.955276121973633</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.688979306303027</v>
+        <v>1.550835609703593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.119265127384395</v>
+        <v>2.203001939824077</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.127038884354217</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>6.004126629160155</v>
-      </c>
-      <c r="H18" s="6" t="inlineStr"/>
+        <v>3.141485544888054</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="n">
+        <v>5.050150802232005</v>
+      </c>
       <c r="I18" s="6" t="n">
-        <v>3.461019665162419</v>
+        <v>4.055044155125794</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5.012765850341898</v>
+        <v>4.565635036669645</v>
       </c>
     </row>
     <row r="19">
@@ -1156,26 +1156,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.597828033447424</v>
+        <v>-4.857129951926504</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.5937391464409046</v>
+        <v>-0.5657519745814297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.571193752245805</v>
+        <v>-1.630466696769815</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.717950533935916</v>
+        <v>-1.656771391035573</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7155653402930164</v>
+        <v>-0.7513973667668101</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.693901540963265</v>
+        <v>-0.7664294529961388</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5017841750613787</v>
+        <v>-0.4957384971713853</v>
       </c>
     </row>
     <row r="21">
@@ -1186,26 +1186,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.208781797934636</v>
+        <v>2.431371328937237</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.292228612716238</v>
+        <v>3.349526902223502</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.766587084729913</v>
+        <v>3.368605828888237</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.814514923401483</v>
+        <v>1.635863239154606</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8895564119476042</v>
+        <v>1.201138054445902</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.715927099806771</v>
+        <v>6.664425993895014</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.329283323735323</v>
+        <v>1.127367662599767</v>
       </c>
     </row>
     <row r="22">
@@ -1252,26 +1252,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.103649633393381</v>
+        <v>-3.30258968756622</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.049402477836422</v>
+        <v>-3.707935667381122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.54044033856069</v>
+        <v>-0.5020441328723746</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.6835115019981</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>-0.8941795497113894</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>-0.9223873539501474</v>
-      </c>
+        <v>-1.802234239179742</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>-0.4935752621913843</v>
+        <v>-0.5283147544653072</v>
       </c>
     </row>
     <row r="24">
@@ -1282,24 +1278,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.737608044841886</v>
+        <v>3.350699372879947</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.492806562725478</v>
+        <v>1.441417133533796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.145147849418994</v>
+        <v>4.148949392113801</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.128960563316458</v>
+        <v>2.11175238910933</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
-      <c r="H24" s="6" t="n">
-        <v>3.256664818882493</v>
-      </c>
+      <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>2.217581424308932</v>
+        <v>2.212776888571844</v>
       </c>
     </row>
     <row r="25">
@@ -1346,28 +1340,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9472627419751101</v>
+        <v>-0.993157796127605</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.6872595287366307</v>
+        <v>-0.6917919749086543</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.2257111256789033</v>
+        <v>-0.2477481565013739</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.3057972226509261</v>
+        <v>-0.2754082206866175</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2400634491457199</v>
+        <v>-0.2496771434645277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.178961817009154</v>
+        <v>-0.1802236671376111</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07592768535687815</v>
+        <v>-0.07916097729019855</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07703792918771739</v>
+        <v>-0.07296908073501127</v>
       </c>
     </row>
     <row r="27">
@@ -1378,28 +1372,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.067872058499471</v>
+        <v>0.956345892088196</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.216389860108247</v>
+        <v>1.279846762204058</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.704290601889413</v>
+        <v>1.675952981604063</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.765726594477638</v>
+        <v>1.71527490056979</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3751108846588477</v>
+        <v>0.3211167087586712</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4355181877202106</v>
+        <v>0.4578717285484155</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6979683810394143</v>
+        <v>0.7027772095247505</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.592546421829852</v>
+        <v>0.5866569342597613</v>
       </c>
     </row>
     <row r="28">
